--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Lrpap1-Sorl1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Lrpap1-Sorl1.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>7.863513333333333</v>
+        <v>5.404689</v>
       </c>
       <c r="H2">
-        <v>23.59054</v>
+        <v>16.214067</v>
       </c>
       <c r="I2">
-        <v>0.1316713470554304</v>
+        <v>0.08747859311663772</v>
       </c>
       <c r="J2">
-        <v>0.1376659241260802</v>
+        <v>0.09021076583983562</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.065777</v>
+        <v>0.2441536666666667</v>
       </c>
       <c r="N2">
-        <v>0.197331</v>
+        <v>0.732461</v>
       </c>
       <c r="O2">
-        <v>0.001323818738770273</v>
+        <v>0.004116731254312699</v>
       </c>
       <c r="P2">
-        <v>0.001341700266060269</v>
+        <v>0.004134975729646142</v>
       </c>
       <c r="Q2">
-        <v>0.5172383165266666</v>
+        <v>1.319574636543</v>
       </c>
       <c r="R2">
-        <v>4.65514484874</v>
+        <v>11.876171728887</v>
       </c>
       <c r="S2">
-        <v>0.0001743089965911028</v>
+        <v>0.0003601258583665662</v>
       </c>
       <c r="T2">
-        <v>0.0001847064070273946</v>
+        <v>0.0003730193273005116</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>7.863513333333333</v>
+        <v>5.404689</v>
       </c>
       <c r="H3">
-        <v>23.59054</v>
+        <v>16.214067</v>
       </c>
       <c r="I3">
-        <v>0.1316713470554304</v>
+        <v>0.08747859311663772</v>
       </c>
       <c r="J3">
-        <v>0.1376659241260802</v>
+        <v>0.09021076583983562</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,28 +620,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.2263086666666667</v>
+        <v>0.2263086666666666</v>
       </c>
       <c r="N3">
-        <v>0.678926</v>
+        <v>0.6789259999999999</v>
       </c>
       <c r="O3">
-        <v>0.004554656698837722</v>
+        <v>0.003815842595804422</v>
       </c>
       <c r="P3">
-        <v>0.004616178881347757</v>
+        <v>0.003832753596745406</v>
       </c>
       <c r="Q3">
-        <v>1.779581217782222</v>
+        <v>1.223127961338</v>
       </c>
       <c r="R3">
-        <v>16.01623096004</v>
+        <v>11.008151652042</v>
       </c>
       <c r="S3">
-        <v>0.0005997177829110028</v>
+        <v>0.0003338045418355097</v>
       </c>
       <c r="T3">
-        <v>0.0006354905316320341</v>
+        <v>0.0003457556372377875</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>7.863513333333333</v>
+        <v>5.404689</v>
       </c>
       <c r="H4">
-        <v>23.59054</v>
+        <v>16.214067</v>
       </c>
       <c r="I4">
-        <v>0.1316713470554304</v>
+        <v>0.08747859311663772</v>
       </c>
       <c r="J4">
-        <v>0.1376659241260802</v>
+        <v>0.09021076583983562</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>20.95626266666667</v>
+        <v>33.20079366666667</v>
       </c>
       <c r="N4">
-        <v>62.868788</v>
+        <v>99.60238100000001</v>
       </c>
       <c r="O4">
-        <v>0.4217628230646765</v>
+        <v>0.5598062352352703</v>
       </c>
       <c r="P4">
-        <v>0.4274597989494132</v>
+        <v>0.5622871771329369</v>
       </c>
       <c r="Q4">
-        <v>164.7898508961689</v>
+        <v>179.439964321503</v>
       </c>
       <c r="R4">
-        <v>1483.10865806552</v>
+        <v>1614.959678893527</v>
       </c>
       <c r="S4">
-        <v>0.05553407905082712</v>
+        <v>0.04897106187630299</v>
       </c>
       <c r="T4">
-        <v>0.05884664824911941</v>
+        <v>0.05072435687108154</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>7.863513333333333</v>
+        <v>5.404689</v>
       </c>
       <c r="H5">
-        <v>23.59054</v>
+        <v>16.214067</v>
       </c>
       <c r="I5">
-        <v>0.1316713470554304</v>
+        <v>0.08747859311663772</v>
       </c>
       <c r="J5">
-        <v>0.1376659241260802</v>
+        <v>0.09021076583983562</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.986625</v>
+        <v>0.7850375000000001</v>
       </c>
       <c r="N5">
-        <v>3.97325</v>
+        <v>1.570075</v>
       </c>
       <c r="O5">
-        <v>0.03998253799822876</v>
+        <v>0.01323669824901601</v>
       </c>
       <c r="P5">
-        <v>0.02701506900651172</v>
+        <v>0.008863573649278483</v>
       </c>
       <c r="Q5">
-        <v>15.62185217583333</v>
+        <v>4.242883540837501</v>
       </c>
       <c r="R5">
-        <v>93.73111305499998</v>
+        <v>25.457301245025</v>
       </c>
       <c r="S5">
-        <v>0.005264554636921714</v>
+        <v>0.001157927740333382</v>
       </c>
       <c r="T5">
-        <v>0.003719054440111263</v>
+        <v>0.0007995897669791984</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>7.863513333333333</v>
+        <v>5.404689</v>
       </c>
       <c r="H6">
-        <v>23.59054</v>
+        <v>16.214067</v>
       </c>
       <c r="I6">
-        <v>0.1316713470554304</v>
+        <v>0.08747859311663772</v>
       </c>
       <c r="J6">
-        <v>0.1376659241260802</v>
+        <v>0.09021076583983562</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>26.45234266666667</v>
+        <v>24.851359</v>
       </c>
       <c r="N6">
-        <v>79.357028</v>
+        <v>74.55407699999999</v>
       </c>
       <c r="O6">
-        <v>0.5323761634994868</v>
+        <v>0.4190244926655965</v>
       </c>
       <c r="P6">
-        <v>0.5395672528966671</v>
+        <v>0.4208815198913931</v>
       </c>
       <c r="Q6">
-        <v>208.0083492572356</v>
+        <v>134.313866622351</v>
       </c>
       <c r="R6">
-        <v>1872.07514331512</v>
+        <v>1208.824799601159</v>
       </c>
       <c r="S6">
-        <v>0.0700986865881795</v>
+        <v>0.03665567309979927</v>
       </c>
       <c r="T6">
-        <v>0.0742800244981901</v>
+        <v>0.03796804423723658</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>45.389333</v>
       </c>
       <c r="I7">
-        <v>0.2533420014148681</v>
+        <v>0.2448858138641327</v>
       </c>
       <c r="J7">
-        <v>0.2648758558689792</v>
+        <v>0.2525342032254661</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.065777</v>
+        <v>0.2441536666666667</v>
       </c>
       <c r="N7">
-        <v>0.197331</v>
+        <v>0.732461</v>
       </c>
       <c r="O7">
-        <v>0.001323818738770273</v>
+        <v>0.004116731254312699</v>
       </c>
       <c r="P7">
-        <v>0.001341700266060269</v>
+        <v>0.004134975729646142</v>
       </c>
       <c r="Q7">
-        <v>0.9951913855803334</v>
+        <v>3.693990693168112</v>
       </c>
       <c r="R7">
-        <v>8.956722470223001</v>
+        <v>33.245916238513</v>
       </c>
       <c r="S7">
-        <v>0.0003353788887905674</v>
+        <v>0.001008129083672277</v>
       </c>
       <c r="T7">
-        <v>0.0003553840062923509</v>
+        <v>0.001044222801242829</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>45.389333</v>
       </c>
       <c r="I8">
-        <v>0.2533420014148681</v>
+        <v>0.2448858138641327</v>
       </c>
       <c r="J8">
-        <v>0.2648758558689792</v>
+        <v>0.2525342032254661</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -930,28 +930,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.2263086666666667</v>
+        <v>0.2263086666666666</v>
       </c>
       <c r="N8">
-        <v>0.678926</v>
+        <v>0.6789259999999999</v>
       </c>
       <c r="O8">
-        <v>0.004554656698837722</v>
+        <v>0.003815842595804422</v>
       </c>
       <c r="P8">
-        <v>0.004616178881347757</v>
+        <v>0.003832753596745406</v>
       </c>
       <c r="Q8">
-        <v>3.423999810706445</v>
+        <v>3.423999810706444</v>
       </c>
       <c r="R8">
         <v>30.815998296358</v>
       </c>
       <c r="S8">
-        <v>0.001153885843841185</v>
+        <v>0.0009344457196509908</v>
       </c>
       <c r="T8">
-        <v>0.001222714332041294</v>
+        <v>0.0009679013757136404</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>45.389333</v>
       </c>
       <c r="I9">
-        <v>0.2533420014148681</v>
+        <v>0.2448858138641327</v>
       </c>
       <c r="J9">
-        <v>0.2648758558689792</v>
+        <v>0.2525342032254661</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>20.95626266666667</v>
+        <v>33.20079366666667</v>
       </c>
       <c r="N9">
-        <v>62.868788</v>
+        <v>99.60238100000001</v>
       </c>
       <c r="O9">
-        <v>0.4217628230646765</v>
+        <v>0.5598062352352703</v>
       </c>
       <c r="P9">
-        <v>0.4274597989494132</v>
+        <v>0.5622871771329369</v>
       </c>
       <c r="Q9">
-        <v>317.0635948709338</v>
+        <v>502.3206265335415</v>
       </c>
       <c r="R9">
-        <v>2853.572353838404</v>
+        <v>4520.885638801873</v>
       </c>
       <c r="S9">
-        <v>0.10685023771759</v>
+        <v>0.1370886055218053</v>
       </c>
       <c r="T9">
-        <v>0.1132237800963076</v>
+        <v>0.1419967442611627</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>45.389333</v>
       </c>
       <c r="I10">
-        <v>0.2533420014148681</v>
+        <v>0.2448858138641327</v>
       </c>
       <c r="J10">
-        <v>0.2648758558689792</v>
+        <v>0.2525342032254661</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.986625</v>
+        <v>0.7850375000000001</v>
       </c>
       <c r="N10">
-        <v>3.97325</v>
+        <v>1.570075</v>
       </c>
       <c r="O10">
-        <v>0.03998253799822876</v>
+        <v>0.01323669824901601</v>
       </c>
       <c r="P10">
-        <v>0.02701506900651172</v>
+        <v>0.008863573649278483</v>
       </c>
       <c r="Q10">
-        <v>30.05719455704167</v>
+        <v>11.87744283499583</v>
       </c>
       <c r="R10">
-        <v>180.34316734225</v>
+        <v>71.26465700997501</v>
       </c>
       <c r="S10">
-        <v>0.01012925619811729</v>
+        <v>0.003241479623584227</v>
       </c>
       <c r="T10">
-        <v>0.007155639524459325</v>
+        <v>0.002238355509250779</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>45.389333</v>
       </c>
       <c r="I11">
-        <v>0.2533420014148681</v>
+        <v>0.2448858138641327</v>
       </c>
       <c r="J11">
-        <v>0.2648758558689792</v>
+        <v>0.2525342032254661</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>26.45234266666667</v>
+        <v>24.851359</v>
       </c>
       <c r="N11">
-        <v>79.357028</v>
+        <v>74.55407699999999</v>
       </c>
       <c r="O11">
-        <v>0.5323761634994868</v>
+        <v>0.4190244926655965</v>
       </c>
       <c r="P11">
-        <v>0.5395672528966671</v>
+        <v>0.4208815198913931</v>
       </c>
       <c r="Q11">
-        <v>400.2180633091471</v>
+        <v>375.9955363845157</v>
       </c>
       <c r="R11">
-        <v>3601.962569782324</v>
+        <v>3383.959827460641</v>
       </c>
       <c r="S11">
-        <v>0.134873242766529</v>
+        <v>0.1026131539154199</v>
       </c>
       <c r="T11">
-        <v>0.1429183379098787</v>
+        <v>0.1062869792780961</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>14.38236133333333</v>
+        <v>17.564497</v>
       </c>
       <c r="H12">
-        <v>43.147084</v>
+        <v>52.69349099999999</v>
       </c>
       <c r="I12">
-        <v>0.2408268175206591</v>
+        <v>0.2842934138044583</v>
       </c>
       <c r="J12">
-        <v>0.2517908955117437</v>
+        <v>0.2931725999334087</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.065777</v>
+        <v>0.2441536666666667</v>
       </c>
       <c r="N12">
-        <v>0.197331</v>
+        <v>0.732461</v>
       </c>
       <c r="O12">
-        <v>0.001323818738770273</v>
+        <v>0.004116731254312699</v>
       </c>
       <c r="P12">
-        <v>0.001341700266060269</v>
+        <v>0.004134975729646142</v>
       </c>
       <c r="Q12">
-        <v>0.9460285814226668</v>
+        <v>4.288436345705667</v>
       </c>
       <c r="R12">
-        <v>8.514257232804001</v>
+        <v>38.595927111351</v>
       </c>
       <c r="S12">
-        <v>0.0003188110538322577</v>
+        <v>0.001170359582004067</v>
       </c>
       <c r="T12">
-        <v>0.0003378279114996599</v>
+        <v>0.001212261585321903</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>14.38236133333333</v>
+        <v>17.564497</v>
       </c>
       <c r="H13">
-        <v>43.147084</v>
+        <v>52.69349099999999</v>
       </c>
       <c r="I13">
-        <v>0.2408268175206591</v>
+        <v>0.2842934138044583</v>
       </c>
       <c r="J13">
-        <v>0.2517908955117437</v>
+        <v>0.2931725999334087</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1240,28 +1240,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.2263086666666667</v>
+        <v>0.2263086666666666</v>
       </c>
       <c r="N13">
-        <v>0.678926</v>
+        <v>0.6789259999999999</v>
       </c>
       <c r="O13">
-        <v>0.004554656698837722</v>
+        <v>0.003815842595804422</v>
       </c>
       <c r="P13">
-        <v>0.004616178881347757</v>
+        <v>0.003832753596745406</v>
       </c>
       <c r="Q13">
-        <v>3.254853016864889</v>
+        <v>3.974997896740666</v>
       </c>
       <c r="R13">
-        <v>29.293677151784</v>
+        <v>35.77498107066599</v>
       </c>
       <c r="S13">
-        <v>0.00109688347768024</v>
+        <v>0.001084818918101705</v>
       </c>
       <c r="T13">
-        <v>0.001162311814376951</v>
+        <v>0.001123658336861974</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>14.38236133333333</v>
+        <v>17.564497</v>
       </c>
       <c r="H14">
-        <v>43.147084</v>
+        <v>52.69349099999999</v>
       </c>
       <c r="I14">
-        <v>0.2408268175206591</v>
+        <v>0.2842934138044583</v>
       </c>
       <c r="J14">
-        <v>0.2517908955117437</v>
+        <v>0.2931725999334087</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>20.95626266666667</v>
+        <v>33.20079366666667</v>
       </c>
       <c r="N14">
-        <v>62.868788</v>
+        <v>99.60238100000001</v>
       </c>
       <c r="O14">
-        <v>0.4217628230646765</v>
+        <v>0.5598062352352703</v>
       </c>
       <c r="P14">
-        <v>0.4274597989494132</v>
+        <v>0.5622871771329369</v>
       </c>
       <c r="Q14">
-        <v>301.4005418682436</v>
+        <v>583.1552407557857</v>
       </c>
       <c r="R14">
-        <v>2712.604876814192</v>
+        <v>5248.397166802071</v>
       </c>
       <c r="S14">
-        <v>0.1015717984271949</v>
+        <v>0.1591492256840566</v>
       </c>
       <c r="T14">
-        <v>0.1076304855727426</v>
+        <v>0.1648471936292802</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>14.38236133333333</v>
+        <v>17.564497</v>
       </c>
       <c r="H15">
-        <v>43.147084</v>
+        <v>52.69349099999999</v>
       </c>
       <c r="I15">
-        <v>0.2408268175206591</v>
+        <v>0.2842934138044583</v>
       </c>
       <c r="J15">
-        <v>0.2517908955117437</v>
+        <v>0.2931725999334087</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>1.986625</v>
+        <v>0.7850375000000001</v>
       </c>
       <c r="N15">
-        <v>3.97325</v>
+        <v>1.570075</v>
       </c>
       <c r="O15">
-        <v>0.03998253799822876</v>
+        <v>0.01323669824901601</v>
       </c>
       <c r="P15">
-        <v>0.02701506900651172</v>
+        <v>0.008863573649278483</v>
       </c>
       <c r="Q15">
-        <v>28.57235858383333</v>
+        <v>13.7887888136375</v>
       </c>
       <c r="R15">
-        <v>171.434151503</v>
+        <v>82.732732881825</v>
       </c>
       <c r="S15">
-        <v>0.009628867382512257</v>
+        <v>0.003763106132712257</v>
       </c>
       <c r="T15">
-        <v>0.006802148417461137</v>
+        <v>0.002598556931460224</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>14.38236133333333</v>
+        <v>17.564497</v>
       </c>
       <c r="H16">
-        <v>43.147084</v>
+        <v>52.69349099999999</v>
       </c>
       <c r="I16">
-        <v>0.2408268175206591</v>
+        <v>0.2842934138044583</v>
       </c>
       <c r="J16">
-        <v>0.2517908955117437</v>
+        <v>0.2931725999334087</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>26.45234266666667</v>
+        <v>24.851359</v>
       </c>
       <c r="N16">
-        <v>79.357028</v>
+        <v>74.55407699999999</v>
       </c>
       <c r="O16">
-        <v>0.5323761634994868</v>
+        <v>0.4190244926655965</v>
       </c>
       <c r="P16">
-        <v>0.5395672528966671</v>
+        <v>0.4208815198913931</v>
       </c>
       <c r="Q16">
-        <v>380.4471503451502</v>
+        <v>436.501620601423</v>
       </c>
       <c r="R16">
-        <v>3424.024353106352</v>
+        <v>3928.514585412806</v>
       </c>
       <c r="S16">
-        <v>0.1282104571794395</v>
+        <v>0.1191259034875836</v>
       </c>
       <c r="T16">
-        <v>0.1358581217956633</v>
+        <v>0.1233909294504844</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>7.8015105</v>
+        <v>5.613580499999999</v>
       </c>
       <c r="H17">
-        <v>15.603021</v>
+        <v>11.227161</v>
       </c>
       <c r="I17">
-        <v>0.1306331347144344</v>
+        <v>0.09085964511315853</v>
       </c>
       <c r="J17">
-        <v>0.0910536301892045</v>
+        <v>0.06246494429911598</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.065777</v>
+        <v>0.2441536666666667</v>
       </c>
       <c r="N17">
-        <v>0.197331</v>
+        <v>0.732461</v>
       </c>
       <c r="O17">
-        <v>0.001323818738770273</v>
+        <v>0.004116731254312699</v>
       </c>
       <c r="P17">
-        <v>0.001341700266060269</v>
+        <v>0.004134975729646142</v>
       </c>
       <c r="Q17">
-        <v>0.5131599561585</v>
+        <v>1.3705762622035</v>
       </c>
       <c r="R17">
-        <v>3.078959736951</v>
+        <v>8.223457573220999</v>
       </c>
       <c r="S17">
-        <v>0.0001729345916392698</v>
+        <v>0.0003740447407930998</v>
       </c>
       <c r="T17">
-        <v>0.000122166679850609</v>
+        <v>0.0002582910286305427</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>7.8015105</v>
+        <v>5.613580499999999</v>
       </c>
       <c r="H18">
-        <v>15.603021</v>
+        <v>11.227161</v>
       </c>
       <c r="I18">
-        <v>0.1306331347144344</v>
+        <v>0.09085964511315853</v>
       </c>
       <c r="J18">
-        <v>0.0910536301892045</v>
+        <v>0.06246494429911598</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1550,28 +1550,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>0.2263086666666667</v>
+        <v>0.2263086666666666</v>
       </c>
       <c r="N18">
-        <v>0.678926</v>
+        <v>0.6789259999999999</v>
       </c>
       <c r="O18">
-        <v>0.004554656698837722</v>
+        <v>0.003815842595804422</v>
       </c>
       <c r="P18">
-        <v>0.004616178881347757</v>
+        <v>0.003832753596745406</v>
       </c>
       <c r="Q18">
-        <v>1.765549439241</v>
+        <v>1.270401918181</v>
       </c>
       <c r="R18">
-        <v>10.593296635446</v>
+        <v>7.622411509085999</v>
       </c>
       <c r="S18">
-        <v>0.0005949890821172693</v>
+        <v>0.0003467061040624634</v>
       </c>
       <c r="T18">
-        <v>0.0004203198447494544</v>
+        <v>0.0002394127399329382</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>7.8015105</v>
+        <v>5.613580499999999</v>
       </c>
       <c r="H19">
-        <v>15.603021</v>
+        <v>11.227161</v>
       </c>
       <c r="I19">
-        <v>0.1306331347144344</v>
+        <v>0.09085964511315853</v>
       </c>
       <c r="J19">
-        <v>0.0910536301892045</v>
+        <v>0.06246494429911598</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>20.95626266666667</v>
+        <v>33.20079366666667</v>
       </c>
       <c r="N19">
-        <v>62.868788</v>
+        <v>99.60238100000001</v>
       </c>
       <c r="O19">
-        <v>0.4217628230646765</v>
+        <v>0.5598062352352703</v>
       </c>
       <c r="P19">
-        <v>0.4274597989494132</v>
+        <v>0.5622871771329369</v>
       </c>
       <c r="Q19">
-        <v>163.490503234758</v>
+        <v>186.3753279117235</v>
       </c>
       <c r="R19">
-        <v>980.943019408548</v>
+        <v>1118.251967470341</v>
       </c>
       <c r="S19">
-        <v>0.05509619968294806</v>
+        <v>0.05086379586561</v>
       </c>
       <c r="T19">
-        <v>0.03892176645429157</v>
+        <v>0.03512323719971606</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>7.8015105</v>
+        <v>5.613580499999999</v>
       </c>
       <c r="H20">
-        <v>15.603021</v>
+        <v>11.227161</v>
       </c>
       <c r="I20">
-        <v>0.1306331347144344</v>
+        <v>0.09085964511315853</v>
       </c>
       <c r="J20">
-        <v>0.0910536301892045</v>
+        <v>0.06246494429911598</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>1.986625</v>
+        <v>0.7850375000000001</v>
       </c>
       <c r="N20">
-        <v>3.97325</v>
+        <v>1.570075</v>
       </c>
       <c r="O20">
-        <v>0.03998253799822876</v>
+        <v>0.01323669824901601</v>
       </c>
       <c r="P20">
-        <v>0.02701506900651172</v>
+        <v>0.008863573649278483</v>
       </c>
       <c r="Q20">
-        <v>15.4986757970625</v>
+        <v>4.40687120176875</v>
       </c>
       <c r="R20">
-        <v>61.99470318824999</v>
+        <v>17.627484807075</v>
       </c>
       <c r="S20">
-        <v>0.005223044272547612</v>
+        <v>0.001202681705375562</v>
       </c>
       <c r="T20">
-        <v>0.002459820102854758</v>
+        <v>0.0005536626342932926</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>7.8015105</v>
+        <v>5.613580499999999</v>
       </c>
       <c r="H21">
-        <v>15.603021</v>
+        <v>11.227161</v>
       </c>
       <c r="I21">
-        <v>0.1306331347144344</v>
+        <v>0.09085964511315853</v>
       </c>
       <c r="J21">
-        <v>0.0910536301892045</v>
+        <v>0.06246494429911598</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>26.45234266666667</v>
+        <v>24.851359</v>
       </c>
       <c r="N21">
-        <v>79.357028</v>
+        <v>74.55407699999999</v>
       </c>
       <c r="O21">
-        <v>0.5323761634994868</v>
+        <v>0.4190244926655965</v>
       </c>
       <c r="P21">
-        <v>0.5395672528966671</v>
+        <v>0.4208815198913931</v>
       </c>
       <c r="Q21">
-        <v>206.368229063598</v>
+        <v>139.5051042808995</v>
       </c>
       <c r="R21">
-        <v>1238.209374381588</v>
+        <v>837.0306256853968</v>
       </c>
       <c r="S21">
-        <v>0.06954596708518224</v>
+        <v>0.0380724166973174</v>
       </c>
       <c r="T21">
-        <v>0.0491295571074581</v>
+        <v>0.02629034069654314</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,16 +1780,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>14.54360033333333</v>
+        <v>18.07044533333334</v>
       </c>
       <c r="H22">
-        <v>43.630801</v>
+        <v>54.211336</v>
       </c>
       <c r="I22">
-        <v>0.243526699294608</v>
+        <v>0.2924825341016128</v>
       </c>
       <c r="J22">
-        <v>0.2546136943039924</v>
+        <v>0.3016174867021735</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>0.065777</v>
+        <v>0.2441536666666667</v>
       </c>
       <c r="N22">
-        <v>0.197331</v>
+        <v>0.732461</v>
       </c>
       <c r="O22">
-        <v>0.001323818738770273</v>
+        <v>0.004116731254312699</v>
       </c>
       <c r="P22">
-        <v>0.001341700266060269</v>
+        <v>0.004134975729646142</v>
       </c>
       <c r="Q22">
-        <v>0.9566343991256666</v>
+        <v>4.41196548643289</v>
       </c>
       <c r="R22">
-        <v>8.609709592131001</v>
+        <v>39.707689377896</v>
       </c>
       <c r="S22">
-        <v>0.0003223852079170754</v>
+        <v>0.001204071989476689</v>
       </c>
       <c r="T22">
-        <v>0.0003416152613902546</v>
+        <v>0.001247180987150355</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>14.54360033333333</v>
+        <v>18.07044533333334</v>
       </c>
       <c r="H23">
-        <v>43.630801</v>
+        <v>54.211336</v>
       </c>
       <c r="I23">
-        <v>0.243526699294608</v>
+        <v>0.2924825341016128</v>
       </c>
       <c r="J23">
-        <v>0.2546136943039924</v>
+        <v>0.3016174867021735</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1860,28 +1860,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>0.2263086666666667</v>
+        <v>0.2263086666666666</v>
       </c>
       <c r="N23">
-        <v>0.678926</v>
+        <v>0.6789259999999999</v>
       </c>
       <c r="O23">
-        <v>0.004554656698837722</v>
+        <v>0.003815842595804422</v>
       </c>
       <c r="P23">
-        <v>0.004616178881347757</v>
+        <v>0.003832753596745406</v>
       </c>
       <c r="Q23">
-        <v>3.291342799969556</v>
+        <v>4.089498389459555</v>
       </c>
       <c r="R23">
-        <v>29.622085199726</v>
+        <v>36.805485505136</v>
       </c>
       <c r="S23">
-        <v>0.001109180512288026</v>
+        <v>0.001116067312153753</v>
       </c>
       <c r="T23">
-        <v>0.001175342358548023</v>
+        <v>0.001156025506999065</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,16 +1904,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>14.54360033333333</v>
+        <v>18.07044533333334</v>
       </c>
       <c r="H24">
-        <v>43.630801</v>
+        <v>54.211336</v>
       </c>
       <c r="I24">
-        <v>0.243526699294608</v>
+        <v>0.2924825341016128</v>
       </c>
       <c r="J24">
-        <v>0.2546136943039924</v>
+        <v>0.3016174867021735</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>20.95626266666667</v>
+        <v>33.20079366666667</v>
       </c>
       <c r="N24">
-        <v>62.868788</v>
+        <v>99.60238100000001</v>
       </c>
       <c r="O24">
-        <v>0.4217628230646765</v>
+        <v>0.5598062352352703</v>
       </c>
       <c r="P24">
-        <v>0.4274597989494132</v>
+        <v>0.5622871771329369</v>
       </c>
       <c r="Q24">
-        <v>304.7795087043542</v>
+        <v>599.9531269767797</v>
       </c>
       <c r="R24">
-        <v>2743.015578339188</v>
+        <v>5399.578142791017</v>
       </c>
       <c r="S24">
-        <v>0.1027105081861164</v>
+        <v>0.1637335462874954</v>
       </c>
       <c r="T24">
-        <v>0.1088371185769519</v>
+        <v>0.1695956451716963</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,16 +1966,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>14.54360033333333</v>
+        <v>18.07044533333334</v>
       </c>
       <c r="H25">
-        <v>43.630801</v>
+        <v>54.211336</v>
       </c>
       <c r="I25">
-        <v>0.243526699294608</v>
+        <v>0.2924825341016128</v>
       </c>
       <c r="J25">
-        <v>0.2546136943039924</v>
+        <v>0.3016174867021735</v>
       </c>
       <c r="K25">
         <v>2</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>1.986625</v>
+        <v>0.7850375000000001</v>
       </c>
       <c r="N25">
-        <v>3.97325</v>
+        <v>1.570075</v>
       </c>
       <c r="O25">
-        <v>0.03998253799822876</v>
+        <v>0.01323669824901601</v>
       </c>
       <c r="P25">
-        <v>0.02701506900651172</v>
+        <v>0.008863573649278483</v>
       </c>
       <c r="Q25">
-        <v>28.89268001220833</v>
+        <v>14.18597722836667</v>
       </c>
       <c r="R25">
-        <v>173.35608007325</v>
+        <v>85.11586337020002</v>
       </c>
       <c r="S25">
-        <v>0.009736815508129892</v>
+        <v>0.003871503047010584</v>
       </c>
       <c r="T25">
-        <v>0.006878406521625234</v>
+        <v>0.002673408807294989</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,16 +2028,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>14.54360033333333</v>
+        <v>18.07044533333334</v>
       </c>
       <c r="H26">
-        <v>43.630801</v>
+        <v>54.211336</v>
       </c>
       <c r="I26">
-        <v>0.243526699294608</v>
+        <v>0.2924825341016128</v>
       </c>
       <c r="J26">
-        <v>0.2546136943039924</v>
+        <v>0.3016174867021735</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>26.45234266666667</v>
+        <v>24.851359</v>
       </c>
       <c r="N26">
-        <v>79.357028</v>
+        <v>74.55407699999999</v>
       </c>
       <c r="O26">
-        <v>0.5323761634994868</v>
+        <v>0.4190244926655965</v>
       </c>
       <c r="P26">
-        <v>0.5395672528966671</v>
+        <v>0.4208815198913931</v>
       </c>
       <c r="Q26">
-        <v>384.7122996243809</v>
+        <v>449.0751242685413</v>
       </c>
       <c r="R26">
-        <v>3462.410696619428</v>
+        <v>4041.676118416872</v>
       </c>
       <c r="S26">
-        <v>0.1296478098801566</v>
+        <v>0.1225573454654763</v>
       </c>
       <c r="T26">
-        <v>0.1373812115854769</v>
+        <v>0.1269452262290328</v>
       </c>
     </row>
   </sheetData>
